--- a/pilot_project_radius.xlsx
+++ b/pilot_project_radius.xlsx
@@ -63,52 +63,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1083.5303651329373</v>
+        <v>2889.4747466532776</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1050.1668466196838</v>
+        <v>2794.2232860777544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1091.9275994104123</v>
+        <v>3458.6603638093998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1120.5932803535584</v>
+        <v>1770.7163804517086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1116.1223558929362</v>
+        <v>2870.6052852464877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1031.488994654992</v>
+        <v>2572.48129521025</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1128.7823009002434</v>
+        <v>2848.40187755781</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>932.8715603792966</v>
+        <v>2297.917989004287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1291.9958172896593</v>
+        <v>2755.9128469937496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>737.4213517386108</v>
+        <v>2107.97717166034</v>
       </c>
     </row>
   </sheetData>
